--- a/biology/Zoologie/Catageus_brevispina/Catageus_brevispina.xlsx
+++ b/biology/Zoologie/Catageus_brevispina/Catageus_brevispina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catageus brevispina est une espèce d'amblypyges de la famille des Charontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Thaïlande[1]. Elle se rencontre sur Ko Phuket[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Thaïlande. Elle se rencontre sur Ko Phuket.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Weygoldt, 2002 : Sperm transfer and spermatophore morphology of the whip spiders Sarax buxtoni, S. brachydactylus (Charinidae), Charon cf. grayi, and Stygophrynus brevispina nov. spec. (Charontidae) (Chelicerata, Amblypygi). Zoologischer Anzeiger, vol. 241, no 2, p. 131-148.</t>
         </is>
